--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Procura</t>
   </si>
   <si>
@@ -98,6 +110,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -290,12 +305,6 @@
     <t>22,7</t>
   </si>
   <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>evento.padre</t>
-  </si>
-  <si>
     <t>Soggetto</t>
   </si>
   <si>
@@ -408,6 +417,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -493,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -505,6 +517,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,265 +539,307 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -806,2485 +861,2354 @@
       <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>134</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>131</v>
+        <v>23</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,70 +32,73 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>41-bis</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>41-bis</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -862,2353 +865,2353 @@
         <v>5</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Procura</t>
@@ -422,7 +422,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -520,7 +520,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -508,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1244,7 +1250,7 @@
         <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>46</v>
@@ -1336,7 +1342,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1451,7 +1457,7 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>46</v>
@@ -1523,10 +1529,10 @@
         <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1540,13 +1546,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>94</v>
@@ -1560,22 +1566,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>33</v>
@@ -1583,22 +1589,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1606,19 +1612,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1635,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1658,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1681,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1704,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1721,22 +1727,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>33</v>
@@ -1744,22 +1750,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1767,22 +1773,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
@@ -1790,22 +1796,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1813,22 +1819,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1836,19 +1842,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1865,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1888,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1905,22 +1911,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1928,19 +1934,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1951,19 +1957,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>20</v>
@@ -1974,22 +1980,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -1997,22 +2003,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>33</v>
@@ -2020,22 +2026,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2043,19 +2049,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2066,19 +2072,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E68" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2089,19 +2095,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2112,10 +2118,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2124,7 +2130,7 @@
         <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2135,19 +2141,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2158,19 +2164,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2204,10 +2210,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>19</v>
@@ -2216,7 +2222,7 @@
         <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2227,10 +2233,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>19</v>
@@ -2239,7 +2245,7 @@
         <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2250,19 +2256,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2273,7 +2279,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>109</v>
@@ -2282,10 +2288,10 @@
         <v>19</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2296,19 +2302,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2342,19 +2348,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2365,19 +2371,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2388,10 +2394,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2400,7 +2406,7 @@
         <v>101</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2411,10 +2417,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2423,7 +2429,7 @@
         <v>101</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2434,19 +2440,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2457,19 +2463,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2480,19 +2486,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2509,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2526,19 +2532,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2549,19 +2555,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2595,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2618,599 +2624,668 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C93" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E117" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -428,7 +428,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -526,7 +529,7 @@
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3179,7 +3182,7 @@
         <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -3199,10 +3202,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
@@ -3211,7 +3214,7 @@
         <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,10 +3225,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3234,7 +3237,7 @@
         <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3245,10 +3248,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -3257,7 +3260,7 @@
         <v>31</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,10 +3271,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
@@ -3280,7 +3283,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3182,7 +3179,7 @@
         <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -3202,10 +3199,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
@@ -3214,7 +3211,7 @@
         <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,10 +3222,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3237,7 +3234,7 @@
         <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3248,10 +3245,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -3260,7 +3257,7 @@
         <v>31</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3271,10 +3268,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
@@ -3283,7 +3280,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3179,7 +3182,7 @@
         <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
@@ -3199,10 +3202,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
@@ -3211,7 +3214,7 @@
         <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,10 +3225,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3234,7 +3237,7 @@
         <v>93</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>23</v>
@@ -3245,10 +3248,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
@@ -3257,7 +3260,7 @@
         <v>31</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,10 +3271,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>19</v>
@@ -3280,7 +3283,7 @@
         <v>103</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="159">
   <si>
     <t>Sezione</t>
   </si>
@@ -312,6 +312,36 @@
   </si>
   <si>
     <t>22,7</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -517,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -527,7 +557,7 @@
     <col min="2" max="2" width="49.48828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.5859375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2121,19 +2151,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,22 +2174,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2167,19 +2197,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,22 +2220,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2213,22 +2243,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2236,19 +2266,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2259,19 +2289,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2312,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2335,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,19 +2358,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2351,19 +2381,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2404,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2427,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,19 +2450,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2443,19 +2473,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2496,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2519,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2542,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2565,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2588,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2611,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,19 +2634,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2627,19 +2657,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2680,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,622 +2703,829 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C98" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>138</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E120" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -2594,7 +2594,7 @@
         <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>113</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -164,6 +164,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -218,13 +224,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1099,7 +1105,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>46</v>
@@ -1191,7 +1197,7 @@
         <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>46</v>
@@ -1306,7 +1312,7 @@
         <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>46</v>
@@ -1329,7 +1335,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>46</v>
@@ -1398,7 +1404,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>46</v>
@@ -1513,7 +1519,7 @@
         <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>46</v>
@@ -1585,10 +1591,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1602,13 +1608,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>96</v>
@@ -1622,22 +1628,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>33</v>
@@ -1645,22 +1651,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -1668,19 +1674,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1697,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1720,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1743,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1766,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1783,22 +1789,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>33</v>
@@ -1806,19 +1812,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1835,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>20</v>
@@ -1852,22 +1858,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1875,22 +1881,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1898,22 +1904,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1990,22 +1996,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -2013,19 +2019,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2059,22 +2065,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>33</v>
@@ -2082,22 +2088,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>33</v>
@@ -2105,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2128,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2151,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2174,22 +2180,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2197,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2220,19 +2226,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>20</v>
@@ -2243,22 +2249,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>33</v>
@@ -2266,22 +2272,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2289,22 +2295,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2312,10 +2318,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2324,7 +2330,7 @@
         <v>113</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2358,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2427,10 +2433,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
@@ -2439,7 +2445,7 @@
         <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2450,7 +2456,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>54</v>
@@ -2459,7 +2465,7 @@
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>55</v>
@@ -2473,19 +2479,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2502,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2525,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2548,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2571,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2594,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2617,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2640,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2663,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2686,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2703,10 +2709,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2715,7 +2721,7 @@
         <v>113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2726,10 +2732,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2738,7 +2744,7 @@
         <v>113</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2772,19 +2778,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2795,19 +2801,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2818,19 +2824,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2864,19 +2870,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2887,19 +2893,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2910,622 +2916,714 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C105" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>147</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="2" t="s">
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="C132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -236,6 +236,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
     <t>Stato di residenza</t>
   </si>
   <si>
@@ -348,6 +354,12 @@
   </si>
   <si>
     <t>flagTrasmissioneResidenzaEstera</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>evento.padre</t>
   </si>
   <si>
     <t>Soggetto</t>
@@ -553,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1381,7 +1393,7 @@
         <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -1404,7 +1416,7 @@
         <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>46</v>
@@ -1542,7 +1554,7 @@
         <v>88</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>46</v>
@@ -1614,10 +1626,10 @@
         <v>19</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1631,13 +1643,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>98</v>
@@ -1651,22 +1663,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>33</v>
@@ -1674,22 +1686,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -1697,19 +1709,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1732,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1755,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1801,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1824,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,22 +1847,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>33</v>
@@ -1858,22 +1870,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1881,22 +1893,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1904,19 +1916,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>20</v>
@@ -1927,22 +1939,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>33</v>
@@ -1950,19 +1962,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1985,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,22 +2008,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -2019,19 +2031,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2054,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2065,19 +2077,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2100,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -2111,22 +2123,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>33</v>
@@ -2134,22 +2146,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>33</v>
@@ -2157,22 +2169,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2180,19 +2192,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,22 +2238,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>33</v>
@@ -2249,19 +2261,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2272,19 +2284,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>20</v>
@@ -2295,22 +2307,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>33</v>
@@ -2318,22 +2330,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>33</v>
@@ -2341,22 +2353,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2364,10 +2376,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2376,10 +2388,10 @@
         <v>115</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2387,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>115</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,7 +2422,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>50</v>
@@ -2419,7 +2431,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>51</v>
@@ -2433,7 +2445,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>52</v>
@@ -2442,7 +2454,7 @@
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>53</v>
@@ -2456,7 +2468,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>54</v>
@@ -2465,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>55</v>
@@ -2479,10 +2491,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
@@ -2491,7 +2503,7 @@
         <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,10 +2514,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
@@ -2514,7 +2526,7 @@
         <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,22 +2560,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2571,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,22 +2606,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>33</v>
@@ -2617,22 +2629,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2640,19 +2652,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2663,10 +2675,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>19</v>
@@ -2675,7 +2687,7 @@
         <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2686,22 +2698,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2709,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2732,22 +2744,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>33</v>
@@ -2755,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2778,10 +2790,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2790,10 +2802,10 @@
         <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2801,10 +2813,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2813,7 +2825,7 @@
         <v>115</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2824,22 +2836,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2847,22 +2859,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>33</v>
@@ -2870,19 +2882,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2893,19 +2905,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2928,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2951,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,22 +2974,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2985,571 +2997,571 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3560,22 +3572,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>33</v>
@@ -3583,19 +3595,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3606,24 +3618,783 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="E138" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
+      <c r="F164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -565,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1577,7 +1583,7 @@
         <v>90</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
@@ -1649,10 +1655,10 @@
         <v>19</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,13 +1672,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>100</v>
@@ -1686,22 +1692,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>33</v>
@@ -1709,22 +1715,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>33</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1755,19 +1761,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1778,19 +1784,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1824,19 +1830,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1847,19 +1853,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1870,22 +1876,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>33</v>
@@ -1893,22 +1899,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>33</v>
@@ -1916,22 +1922,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>33</v>
@@ -1939,19 +1945,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>20</v>
@@ -1962,22 +1968,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>33</v>
@@ -1985,19 +1991,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2008,22 +2014,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>33</v>
@@ -2031,22 +2037,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>33</v>
@@ -2054,19 +2060,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>20</v>
@@ -2077,19 +2083,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2100,19 +2106,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>20</v>
@@ -2123,19 +2129,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2146,19 +2152,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>20</v>
@@ -2169,22 +2175,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>33</v>
@@ -2192,22 +2198,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>33</v>
@@ -2215,22 +2221,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>33</v>
@@ -2238,19 +2244,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2284,22 +2290,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>33</v>
@@ -2307,19 +2313,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2330,19 +2336,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>20</v>
@@ -2353,22 +2359,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>33</v>
@@ -2376,22 +2382,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>33</v>
@@ -2399,22 +2405,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>33</v>
@@ -2422,22 +2428,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>33</v>
@@ -2445,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2468,19 +2474,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2491,19 +2497,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2514,19 +2520,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2537,19 +2543,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2560,22 +2566,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>33</v>
@@ -2583,19 +2589,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2612,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>20</v>
@@ -2629,22 +2635,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>33</v>
@@ -2652,22 +2658,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>33</v>
@@ -2675,22 +2681,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>33</v>
@@ -2698,22 +2704,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>33</v>
@@ -2721,19 +2727,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2750,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>20</v>
@@ -2767,22 +2773,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>33</v>
@@ -2790,22 +2796,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>33</v>
@@ -2813,22 +2819,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>33</v>
@@ -2836,22 +2842,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>33</v>
@@ -2859,19 +2865,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>20</v>
@@ -2882,19 +2888,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2905,22 +2911,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>33</v>
@@ -2928,22 +2934,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>33</v>
@@ -2951,19 +2957,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2974,22 +2980,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>33</v>
@@ -2997,19 +3003,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3020,22 +3026,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>33</v>
@@ -3043,19 +3049,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>20</v>
@@ -3069,7 +3075,7 @@
         <v>116</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3078,7 +3084,7 @@
         <v>117</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3098,19 @@
         <v>116</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>33</v>
@@ -3115,19 +3121,19 @@
         <v>116</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>33</v>
@@ -3135,10 +3141,10 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3147,7 +3153,7 @@
         <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3164,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3187,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3210,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3227,19 +3233,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3250,10 +3256,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
@@ -3262,7 +3268,7 @@
         <v>119</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3273,19 +3279,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3296,19 +3302,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3319,19 +3325,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3342,19 +3348,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3365,19 +3371,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3388,19 +3394,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3411,19 +3417,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>119</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3434,19 +3440,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3457,19 +3463,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3480,19 +3486,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3503,19 +3509,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3526,10 +3532,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3538,7 +3544,7 @@
         <v>119</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3549,10 +3555,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3561,7 +3567,7 @@
         <v>119</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3572,19 +3578,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3595,19 +3601,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3618,19 +3624,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3641,19 +3647,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3664,19 +3670,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3687,19 +3693,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3710,19 +3716,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3733,668 +3739,760 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F162" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G162" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B166" s="2" t="s">
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="C169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -1376,7 +1376,7 @@
         <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>46</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -4090,7 +4090,7 @@
         <v>70</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>154</v>
@@ -4113,7 +4113,7 @@
         <v>72</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>154</v>
@@ -4122,7 +4122,7 @@
         <v>73</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>156</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="168">
   <si>
     <t>Sezione</t>
   </si>
@@ -65,13 +65,16 @@
     <t>Procura</t>
   </si>
   <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
   <si>
     <t>22</t>
@@ -571,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -703,13 +706,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -726,13 +729,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -749,13 +752,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
@@ -772,13 +775,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -818,7 +821,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -841,7 +844,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -864,7 +867,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -887,7 +890,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -909,3591 +912,3614 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F58" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F60" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F69" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F98" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F108" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F110" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="E114" s="2" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F141" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B142" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F149" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F151" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F154" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F155" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="F158" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F160" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F162" s="2" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F163" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C167" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="F168" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F169" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>33</v>
+      <c r="C171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_105.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -574,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1195,7 +1207,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>47</v>
@@ -1218,7 +1230,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>47</v>
@@ -1264,7 +1276,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>47</v>
@@ -1287,7 +1299,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>47</v>
@@ -1632,7 +1644,7 @@
         <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>47</v>
@@ -1655,7 +1667,7 @@
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>47</v>
@@ -1704,10 +1716,10 @@
         <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1721,16 +1733,16 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1741,22 +1753,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>34</v>
@@ -1764,19 +1776,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1787,22 +1799,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>34</v>
@@ -1810,19 +1822,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1845,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1868,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1891,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1902,22 +1914,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>34</v>
@@ -1925,22 +1937,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>34</v>
@@ -1948,19 +1960,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1971,22 +1983,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>34</v>
@@ -1994,22 +2006,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>34</v>
@@ -2017,22 +2029,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>34</v>
@@ -2040,19 +2052,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2063,19 +2075,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
@@ -2086,19 +2098,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>21</v>
@@ -2109,19 +2121,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2132,22 +2144,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>34</v>
@@ -2155,22 +2167,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>34</v>
@@ -2178,19 +2190,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -2201,19 +2213,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2224,19 +2236,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>21</v>
@@ -2247,22 +2259,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>34</v>
@@ -2270,22 +2282,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>34</v>
@@ -2293,19 +2305,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2316,22 +2328,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>34</v>
@@ -2339,22 +2351,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>34</v>
@@ -2362,22 +2374,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>34</v>
@@ -2385,19 +2397,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2408,22 +2420,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>34</v>
@@ -2431,22 +2443,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>34</v>
@@ -2454,22 +2466,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>34</v>
@@ -2477,19 +2489,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2500,22 +2512,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>34</v>
@@ -2523,22 +2535,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>34</v>
@@ -2546,22 +2558,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>34</v>
@@ -2569,19 +2581,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2592,19 +2604,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2615,19 +2627,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2638,22 +2650,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>34</v>
@@ -2661,22 +2673,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>34</v>
@@ -2684,22 +2696,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>34</v>
@@ -2707,22 +2719,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>34</v>
@@ -2730,19 +2742,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2753,19 +2765,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2776,19 +2788,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>21</v>
@@ -2799,22 +2811,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>34</v>
@@ -2822,22 +2834,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>34</v>
@@ -2845,19 +2857,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>21</v>
@@ -2868,19 +2880,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2891,22 +2903,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>34</v>
@@ -2914,22 +2926,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>34</v>
@@ -2937,19 +2949,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>21</v>
@@ -2960,22 +2972,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>34</v>
@@ -2983,22 +2995,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>34</v>
@@ -3006,19 +3018,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3029,22 +3041,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>34</v>
@@ -3052,19 +3064,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3075,19 +3087,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>21</v>
@@ -3098,22 +3110,22 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>34</v>
@@ -3121,22 +3133,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>34</v>
@@ -3144,22 +3156,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>34</v>
@@ -3167,19 +3179,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3190,19 +3202,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3213,10 +3225,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3225,10 +3237,10 @@
         <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>34</v>
@@ -3236,10 +3248,10 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3248,7 +3260,7 @@
         <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3259,22 +3271,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>34</v>
@@ -3282,22 +3294,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>34</v>
@@ -3305,19 +3317,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3328,19 +3340,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3351,19 +3363,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3374,19 +3386,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3397,19 +3409,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3420,19 +3432,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3443,19 +3455,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3466,19 +3478,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3489,19 +3501,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3512,19 +3524,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3535,19 +3547,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3558,19 +3570,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3581,19 +3593,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3604,19 +3616,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3627,19 +3639,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3650,16 +3662,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>137</v>
@@ -3673,19 +3685,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3696,19 +3708,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3719,19 +3731,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3742,19 +3754,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3765,19 +3777,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3788,19 +3800,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3811,19 +3823,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3834,691 +3846,875 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C146" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>157</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E168" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>24</v>
+        <v>160</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="E171" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
+      <c r="F177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>34</v>
       </c>
     </row>
